--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0652FAEC-20C8-4F03-AB81-5E5AEE7CCA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97878402-54F6-4173-8F2E-4567C32B1B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1095" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{505C5DB6-6863-4712-9628-F26C757D37C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{505C5DB6-6863-4712-9628-F26C757D37C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>Price</t>
   </si>
@@ -171,12 +171,6 @@
     <t>Office Products Y/Y</t>
   </si>
   <si>
-    <t>Windows Y/Y</t>
-  </si>
-  <si>
-    <t>LinkedIn Y/Y</t>
-  </si>
-  <si>
     <t>Ads Y/Y</t>
   </si>
   <si>
@@ -301,6 +295,9 @@
   </si>
   <si>
     <t>Apple, Sony, Samsung</t>
+  </si>
+  <si>
+    <t>Net Income Y/Y</t>
   </si>
 </sst>
 </file>
@@ -311,13 +308,19 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -447,51 +450,52 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,7 +526,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -564,16 +568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -588,8 +592,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19869150" y="457200"/>
-          <a:ext cx="0" cy="9229725"/>
+          <a:off x="19812000" y="38100"/>
+          <a:ext cx="9525" cy="9867900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -915,7 +919,7 @@
   <dimension ref="A3:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -931,44 +935,44 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="E3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="F3" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>282.91000000000003</v>
+        <v>282.3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="B4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="21">
         <f>(15789/Model!I18)</f>
         <v>0.32019874264854997</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="29">
+        <v>81</v>
+      </c>
+      <c r="E4" s="21">
         <f>(15789/13552)-1</f>
         <v>0.16506788665879579</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>86</v>
+      <c r="F4" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>1</v>
@@ -981,48 +985,48 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="B5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="21">
         <f>(19051/Model!I18)</f>
         <v>0.38635165280876088</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="29">
+        <v>82</v>
+      </c>
+      <c r="E5" s="21">
         <f>(19051/15118)-1</f>
         <v>0.2601534594523085</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>87</v>
+      <c r="F5" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="2">
         <f>PRODUCT(M4,M3)</f>
-        <v>2109659.87</v>
+        <v>2105111.1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="32">
+      <c r="B6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="24">
         <f>(14520/Model!I18)</f>
         <v>0.29446359764753599</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="32">
+        <v>83</v>
+      </c>
+      <c r="E6" s="24">
         <f>(14520/13036)-1</f>
         <v>0.11383860079779073</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>88</v>
+      <c r="F6" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>3</v>
@@ -1037,9 +1041,9 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="29"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="29"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="11"/>
       <c r="L7" s="1" t="s">
         <v>4</v>
@@ -1054,42 +1058,42 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="29"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="29"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="11"/>
       <c r="L8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M8" s="2">
         <f>SUM(M5,-M6,M7)</f>
-        <v>2054674.87</v>
+        <v>2050126.1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="29"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="29"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="11"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="29"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="29"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="11"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="29"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="11"/>
       <c r="G11" s="2"/>
     </row>
@@ -1125,13 +1129,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F813B77F-5B7C-47F6-87A2-87389807C4D7}">
-  <dimension ref="A1:DH58"/>
+  <dimension ref="A1:DH59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH47" sqref="AH47"/>
+      <selection pane="bottomRight" activeCell="AH51" sqref="AH51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1237,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X2" s="9">
         <v>2015</v>
@@ -1870,36 +1874,36 @@
         <v>67321</v>
       </c>
       <c r="AF6" s="2">
-        <f>AE6*1.02</f>
-        <v>68667.42</v>
+        <f>AE6*1.12</f>
+        <v>75399.520000000004</v>
       </c>
       <c r="AG6" s="2">
-        <f t="shared" ref="AG6:AM6" si="5">AF6*1.02</f>
-        <v>70040.768400000001</v>
+        <f t="shared" ref="AG6:AM6" si="5">AF6*1.12</f>
+        <v>84447.462400000019</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" si="5"/>
-        <v>71441.583767999997</v>
+        <v>94581.157888000031</v>
       </c>
       <c r="AI6" s="2">
         <f t="shared" si="5"/>
-        <v>72870.415443360005</v>
+        <v>105930.89683456004</v>
       </c>
       <c r="AJ6" s="2">
         <f t="shared" si="5"/>
-        <v>74327.82375222721</v>
+        <v>118642.60445470727</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" si="5"/>
-        <v>75814.380227271758</v>
+        <v>132879.71698927216</v>
       </c>
       <c r="AL6" s="2">
         <f t="shared" si="5"/>
-        <v>77330.667831817191</v>
+        <v>148825.28302798484</v>
       </c>
       <c r="AM6" s="2">
         <f t="shared" si="5"/>
-        <v>78877.281188453533</v>
+        <v>166684.31699134305</v>
       </c>
     </row>
     <row r="7" spans="1:112" x14ac:dyDescent="0.2">
@@ -1978,43 +1982,43 @@
         <v>35316</v>
       </c>
       <c r="AD7" s="2">
-        <f t="shared" ref="AD7:AD25" si="7">SUM(E7:H7)</f>
+        <f t="shared" ref="AD7:AD14" si="7">SUM(E7:H7)</f>
         <v>42772</v>
       </c>
       <c r="AE7" s="2">
         <v>44862</v>
       </c>
       <c r="AF7" s="2">
-        <f t="shared" ref="AF7:AM7" si="8">AE7*1.02</f>
-        <v>45759.24</v>
+        <f>AE7*1.05</f>
+        <v>47105.1</v>
       </c>
       <c r="AG7" s="2">
-        <f t="shared" si="8"/>
-        <v>46674.424800000001</v>
+        <f t="shared" ref="AG7:AM7" si="8">AF7*1.05</f>
+        <v>49460.355000000003</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" si="8"/>
-        <v>47607.913295999999</v>
+        <v>51933.372750000002</v>
       </c>
       <c r="AI7" s="2">
         <f t="shared" si="8"/>
-        <v>48560.071561919998</v>
+        <v>54530.041387500001</v>
       </c>
       <c r="AJ7" s="2">
         <f t="shared" si="8"/>
-        <v>49531.272993158396</v>
+        <v>57256.543456875006</v>
       </c>
       <c r="AK7" s="2">
         <f t="shared" si="8"/>
-        <v>50521.898453021568</v>
+        <v>60119.37062971876</v>
       </c>
       <c r="AL7" s="2">
         <f t="shared" si="8"/>
-        <v>51532.336422082</v>
+        <v>63125.339161204698</v>
       </c>
       <c r="AM7" s="2">
         <f t="shared" si="8"/>
-        <v>52562.983150523643</v>
+        <v>66281.606119264936</v>
       </c>
     </row>
     <row r="8" spans="1:112" x14ac:dyDescent="0.2">
@@ -2882,7 +2886,7 @@
         <v>18494.68</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ref="L16:P17" si="23">K16*1.03</f>
+        <f t="shared" ref="L16:P16" si="23">K16*1.03</f>
         <v>19049.520400000001</v>
       </c>
       <c r="M16" s="2">
@@ -3110,35 +3114,35 @@
       </c>
       <c r="AF18" s="5">
         <f>SUM(AF6:AF14)</f>
-        <v>202235.40000000005</v>
+        <v>210313.36000000004</v>
       </c>
       <c r="AG18" s="5">
         <f t="shared" ref="AG18:AM18" si="36">SUM(AG6:AG14)</f>
-        <v>206280.10800000004</v>
+        <v>223472.73220000006</v>
       </c>
       <c r="AH18" s="5">
         <f t="shared" si="36"/>
-        <v>210405.71015999999</v>
+        <v>237870.74373400002</v>
       </c>
       <c r="AI18" s="5">
         <f t="shared" si="36"/>
-        <v>214613.82436319999</v>
+        <v>253644.27557997999</v>
       </c>
       <c r="AJ18" s="5">
         <f t="shared" si="36"/>
-        <v>218906.10085046405</v>
+        <v>270946.15201666072</v>
       </c>
       <c r="AK18" s="5">
         <f t="shared" si="36"/>
-        <v>223284.22286747332</v>
+        <v>289947.03180617088</v>
       </c>
       <c r="AL18" s="5">
         <f t="shared" si="36"/>
-        <v>227749.90732482274</v>
+        <v>310837.52526011318</v>
       </c>
       <c r="AM18" s="5">
         <f t="shared" si="36"/>
-        <v>232304.90547131925</v>
+        <v>333830.56424295</v>
       </c>
     </row>
     <row r="19" spans="2:112" x14ac:dyDescent="0.2">
@@ -3350,7 +3354,7 @@
         <v>96937</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" ref="AC20:AE20" si="53">AD18-AD19</f>
+        <f t="shared" ref="AD20:AM20" si="53">AD18-AD19</f>
         <v>115856</v>
       </c>
       <c r="AE20" s="2">
@@ -3358,36 +3362,36 @@
         <v>135620</v>
       </c>
       <c r="AF20" s="2">
-        <f>AF18-AF19</f>
-        <v>138332.40000000005</v>
+        <f t="shared" si="53"/>
+        <v>146410.36000000004</v>
       </c>
       <c r="AG20" s="2">
-        <f t="shared" ref="AG20:AM20" si="54">AG18-AG19</f>
-        <v>141099.04800000004</v>
+        <f t="shared" si="53"/>
+        <v>158291.67220000006</v>
       </c>
       <c r="AH20" s="2">
-        <f t="shared" si="54"/>
-        <v>143921.02896</v>
+        <f t="shared" si="53"/>
+        <v>171386.06253400003</v>
       </c>
       <c r="AI20" s="2">
-        <f t="shared" si="54"/>
-        <v>146799.4495392</v>
+        <f t="shared" si="53"/>
+        <v>185829.90075597999</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="54"/>
-        <v>149735.43852998404</v>
+        <f t="shared" si="53"/>
+        <v>201775.48969618074</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="54"/>
-        <v>152730.14730058372</v>
+        <f t="shared" si="53"/>
+        <v>219392.95623928128</v>
       </c>
       <c r="AL20" s="2">
-        <f t="shared" si="54"/>
-        <v>155784.75024659536</v>
+        <f t="shared" si="53"/>
+        <v>238872.3681818858</v>
       </c>
       <c r="AM20" s="2">
-        <f t="shared" si="54"/>
-        <v>158900.4452515273</v>
+        <f t="shared" si="53"/>
+        <v>260426.10402315806</v>
       </c>
     </row>
     <row r="21" spans="2:112" x14ac:dyDescent="0.2">
@@ -3423,23 +3427,23 @@
         <v>6985.9800000000005</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ref="L21:P21" si="55">K21*1.02</f>
+        <f t="shared" ref="L21:P21" si="54">K21*1.02</f>
         <v>7125.6996000000008</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>7268.213592000001</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>7413.5778638400016</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>7561.8494211168018</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>7713.086409539138</v>
       </c>
       <c r="R21" s="11"/>
@@ -3475,31 +3479,31 @@
         <v>25002.240000000002</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" ref="AG21:AM21" si="56">AF21*1.02</f>
+        <f t="shared" ref="AG21:AM21" si="55">AF21*1.02</f>
         <v>25502.284800000001</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>26012.330496000002</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>26532.577105920001</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>27063.228648038403</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>27604.493220999171</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>28156.583085419155</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>28719.714747127538</v>
       </c>
     </row>
@@ -3532,27 +3536,27 @@
         <v>6304</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:P22" si="57">J22*1.02</f>
+        <f t="shared" ref="K22:P22" si="56">J22*1.02</f>
         <v>6430.08</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>6558.6815999999999</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>6689.8552319999999</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>6823.6523366399997</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>6960.1253833727997</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>7099.327891040256</v>
       </c>
       <c r="R22" s="11"/>
@@ -3584,35 +3588,35 @@
         <v>21825</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" ref="AF22:AM22" si="58">AE22*1.02</f>
+        <f t="shared" ref="AF22:AM22" si="57">AE22*1.02</f>
         <v>22261.5</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>22706.73</v>
       </c>
       <c r="AH22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>23160.864600000001</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>23624.081892000002</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>24096.563529840001</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>24578.494800436802</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>25070.064696445537</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>25571.465990374447</v>
       </c>
     </row>
@@ -3645,27 +3649,27 @@
         <v>1749</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:P23" si="59">J23*1.02</f>
+        <f t="shared" ref="K23:P23" si="58">J23*1.02</f>
         <v>1783.98</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1819.6596</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1856.052792</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1893.17384784</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1931.0373247968</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1969.6580712927362</v>
       </c>
       <c r="R23" s="11"/>
@@ -3697,35 +3701,35 @@
         <v>5900</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" ref="AF23:AM23" si="60">AE23*1.02</f>
+        <f t="shared" ref="AF23:AM23" si="59">AE23*1.02</f>
         <v>6018</v>
       </c>
       <c r="AG23" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>6138.36</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>6261.1271999999999</v>
       </c>
       <c r="AI23" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>6386.3497440000001</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>6514.0767388800004</v>
       </c>
       <c r="AK23" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>6644.3582736576009</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>6777.2454391307529</v>
       </c>
       <c r="AM23" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>6912.7903479133684</v>
       </c>
     </row>
@@ -3762,23 +3766,23 @@
         <v>21150.02</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" ref="L24:P24" si="61">K24*1.03</f>
+        <f t="shared" ref="L24:P24" si="60">K24*1.03</f>
         <v>21784.5206</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>22438.056218000002</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>23111.197904540004</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>23804.533841676206</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>24518.669856926492</v>
       </c>
       <c r="X24" s="2">
@@ -3806,35 +3810,35 @@
         <v>83383</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" ref="AF24:AM24" si="62">AE24*1.02</f>
+        <f t="shared" ref="AF24:AM24" si="61">AE24*1.02</f>
         <v>85050.66</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>86751.673200000005</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>88486.706664000012</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>90256.440797280011</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>92061.569613225613</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>93902.801005490124</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>95780.857025599922</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>97696.474166111919</v>
       </c>
     </row>
@@ -3871,23 +3875,23 @@
         <v>336.33</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" ref="L25:P25" si="63">K25*1.01</f>
+        <f t="shared" ref="L25:P25" si="62">K25*1.01</f>
         <v>339.69329999999997</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>343.09023299999996</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>346.52113532999994</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>349.98634668329993</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>353.48621015013293</v>
       </c>
       <c r="X25" s="2">
@@ -3915,35 +3919,35 @@
         <v>333</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" ref="AF25:AM25" si="64">AE25*1.02</f>
+        <f t="shared" ref="AF25:AM25" si="63">AE25*1.02</f>
         <v>339.66</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>346.45320000000004</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>353.38226400000002</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>360.44990928000004</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>367.65890746560007</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>375.01208561491205</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>382.5123273272103</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>390.16257387375452</v>
       </c>
     </row>
@@ -3952,11 +3956,11 @@
         <v>37</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ref="C26:D26" si="65">SUM(C24,C25)</f>
+        <f t="shared" ref="C26:D26" si="64">SUM(C24,C25)</f>
         <v>16124</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>18337</v>
       </c>
       <c r="E26" s="2">
@@ -3964,52 +3968,52 @@
         <v>17236</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ref="F26:J26" si="66">SUM(F24,F25)</f>
+        <f t="shared" ref="F26:J26" si="65">SUM(F24,F25)</f>
         <v>19405</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>20524</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>22515</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>20190</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>20867</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26" si="67">SUM(K24,K25)</f>
+        <f t="shared" ref="K26" si="66">SUM(K24,K25)</f>
         <v>21486.350000000002</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" ref="L26" si="68">SUM(L24,L25)</f>
+        <f t="shared" ref="L26" si="67">SUM(L24,L25)</f>
         <v>22124.213899999999</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" ref="M26" si="69">SUM(M24,M25)</f>
+        <f t="shared" ref="M26" si="68">SUM(M24,M25)</f>
         <v>22781.146451000001</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" ref="N26" si="70">SUM(N24,N25)</f>
+        <f t="shared" ref="N26" si="69">SUM(N24,N25)</f>
         <v>23457.719039870004</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" ref="O26" si="71">SUM(O24,O25)</f>
+        <f t="shared" ref="O26" si="70">SUM(O24,O25)</f>
         <v>24154.520188359507</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" ref="P26" si="72">SUM(P24,P25)</f>
+        <f t="shared" ref="P26" si="71">SUM(P24,P25)</f>
         <v>24872.156067076623</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2">
-        <f t="shared" ref="X26" si="73">SUM(X24,X25)</f>
+        <f t="shared" ref="X26" si="72">SUM(X24,X25)</f>
         <v>17815</v>
       </c>
       <c r="Y26" s="2">
@@ -4017,55 +4021,55 @@
         <v>26509</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" ref="Z26" si="74">SUM(Z24,Z25)</f>
+        <f t="shared" ref="Z26" si="73">SUM(Z24,Z25)</f>
         <v>28149</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" ref="AA26" si="75">SUM(AA24,AA25)</f>
+        <f t="shared" ref="AA26" si="74">SUM(AA24,AA25)</f>
         <v>33642</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" ref="AB26" si="76">SUM(AB24,AB25)</f>
+        <f t="shared" ref="AB26" si="75">SUM(AB24,AB25)</f>
         <v>43688</v>
       </c>
       <c r="AC26" s="2">
-        <f t="shared" ref="AC26" si="77">SUM(AC24,AC25)</f>
+        <f t="shared" ref="AC26" si="76">SUM(AC24,AC25)</f>
         <v>52036</v>
       </c>
       <c r="AD26" s="2">
-        <f t="shared" ref="AD26:AE26" si="78">SUM(AD24,AD25)</f>
+        <f t="shared" ref="AD26:AE26" si="77">SUM(AD24,AD25)</f>
         <v>71102</v>
       </c>
       <c r="AE26" s="2">
+        <f t="shared" si="77"/>
+        <v>83716</v>
+      </c>
+      <c r="AF26" s="2">
+        <f t="shared" ref="AF26:AL26" si="78">AF24+AF25</f>
+        <v>85390.32</v>
+      </c>
+      <c r="AG26" s="2">
         <f t="shared" si="78"/>
-        <v>83716</v>
-      </c>
-      <c r="AF26" s="2">
-        <f t="shared" ref="AF26:AL26" si="79">AF24+AF25</f>
-        <v>85390.32</v>
-      </c>
-      <c r="AG26" s="2">
-        <f t="shared" si="79"/>
         <v>87098.126400000008</v>
       </c>
       <c r="AH26" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>88840.088928000012</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>90616.890706560007</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>92429.228520691206</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>94277.813091105039</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>96163.369352927126</v>
       </c>
       <c r="AM26" s="2">
@@ -4078,19 +4082,19 @@
         <v>39</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27:F27" si="80">SUM(C26,-C28)</f>
+        <f t="shared" ref="C27:F27" si="79">SUM(C26,-C28)</f>
         <v>2231</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>2874</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>1779</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>2947</v>
       </c>
       <c r="G27" s="2">
@@ -4114,48 +4118,48 @@
         <v>3652.6795000000006</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" ref="L27:P27" si="81">L26*0.17</f>
+        <f t="shared" ref="L27:P27" si="80">L26*0.17</f>
         <v>3761.1163630000001</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>3872.7948966700005</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>3987.812236777901</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>4106.2684320211165</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>4228.2665314030264</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2">
-        <f t="shared" ref="W27:AC27" si="82">SUM(X26,-X28)</f>
+        <f t="shared" ref="X27:AC27" si="81">SUM(X26,-X28)</f>
         <v>-3389</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5970</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2660</v>
       </c>
       <c r="AA27" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>17071</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>4448</v>
       </c>
       <c r="AC27" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>7755</v>
       </c>
       <c r="AD27" s="2">
@@ -4171,31 +4175,31 @@
         <v>12808.548000000001</v>
       </c>
       <c r="AG27" s="2">
-        <f t="shared" ref="AG27:AM27" si="83">AG26*0.15</f>
+        <f t="shared" ref="AG27:AM27" si="82">AG26*0.15</f>
         <v>13064.71896</v>
       </c>
       <c r="AH27" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>13326.013339200001</v>
       </c>
       <c r="AI27" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>13592.533605984001</v>
       </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>13864.38427810368</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>14141.671963665756</v>
       </c>
       <c r="AL27" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>14424.505402939069</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>14712.995510997849</v>
       </c>
     </row>
@@ -4232,23 +4236,23 @@
         <v>17833.6705</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" ref="L28:P28" si="84">L26-L27</f>
+        <f t="shared" ref="L28:P28" si="83">L26-L27</f>
         <v>18363.097536999998</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>18908.351554330002</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>19469.906803092104</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>20048.251756338392</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>20643.889535673596</v>
       </c>
       <c r="X28" s="5">
@@ -4280,31 +4284,31 @@
         <v>72581.772000000012</v>
       </c>
       <c r="AG28" s="5">
-        <f t="shared" ref="AG28:AM28" si="85">AG26-AG27</f>
+        <f t="shared" ref="AG28:AM28" si="84">AG26-AG27</f>
         <v>74033.40744000001</v>
       </c>
       <c r="AH28" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>75514.075588800013</v>
       </c>
       <c r="AI28" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>77024.357100576002</v>
       </c>
       <c r="AJ28" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>78564.844242587526</v>
       </c>
       <c r="AK28" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>80136.141127439289</v>
       </c>
       <c r="AL28" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>81738.863949988052</v>
       </c>
       <c r="AM28" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>83373.641228987821</v>
       </c>
       <c r="AN28" s="5">
@@ -4312,247 +4316,247 @@
         <v>89209.796115016972</v>
       </c>
       <c r="AO28" s="5">
-        <f>AN28*(1+$AH$46)</f>
+        <f t="shared" ref="AO28:CW28" si="85">AN28*(1+$AH$46)</f>
         <v>95454.481843068163</v>
       </c>
       <c r="AP28" s="5">
-        <f>AO28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>102136.29557208293</v>
       </c>
       <c r="AQ28" s="5">
-        <f>AP28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>109285.83626212875</v>
       </c>
       <c r="AR28" s="5">
-        <f>AQ28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>116935.84480047777</v>
       </c>
       <c r="AS28" s="5">
-        <f>AR28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>125121.35393651122</v>
       </c>
       <c r="AT28" s="5">
-        <f>AS28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>133879.848712067</v>
       </c>
       <c r="AU28" s="5">
-        <f>AT28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>143251.43812191169</v>
       </c>
       <c r="AV28" s="5">
-        <f>AU28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>153279.03879044551</v>
       </c>
       <c r="AW28" s="5">
-        <f>AV28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>164008.57150577669</v>
       </c>
       <c r="AX28" s="5">
-        <f>AW28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>175489.17151118108</v>
       </c>
       <c r="AY28" s="5">
-        <f>AX28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>187773.41351696377</v>
       </c>
       <c r="AZ28" s="5">
-        <f>AY28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>200917.55246315125</v>
       </c>
       <c r="BA28" s="5">
-        <f>AZ28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>214981.78113557186</v>
       </c>
       <c r="BB28" s="5">
-        <f>BA28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>230030.50581506192</v>
       </c>
       <c r="BC28" s="5">
-        <f>BB28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>246132.64122211628</v>
       </c>
       <c r="BD28" s="5">
-        <f>BC28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>263361.92610766442</v>
       </c>
       <c r="BE28" s="5">
-        <f>BD28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>281797.26093520096</v>
       </c>
       <c r="BF28" s="5">
-        <f>BE28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>301523.06920066505</v>
       </c>
       <c r="BG28" s="5">
-        <f>BF28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>322629.68404471164</v>
       </c>
       <c r="BH28" s="5">
-        <f>BG28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>345213.76192784146</v>
       </c>
       <c r="BI28" s="5">
-        <f>BH28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>369378.72526279039</v>
       </c>
       <c r="BJ28" s="5">
-        <f>BI28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>395235.23603118572</v>
       </c>
       <c r="BK28" s="5">
-        <f>BJ28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>422901.70255336876</v>
       </c>
       <c r="BL28" s="5">
-        <f>BK28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>452504.82173210458</v>
       </c>
       <c r="BM28" s="5">
-        <f>BL28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>484180.15925335191</v>
       </c>
       <c r="BN28" s="5">
-        <f>BM28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>518072.7704010866</v>
       </c>
       <c r="BO28" s="5">
-        <f>BN28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>554337.86432916275</v>
       </c>
       <c r="BP28" s="5">
-        <f>BO28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>593141.51483220421</v>
       </c>
       <c r="BQ28" s="5">
-        <f>BP28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>634661.42087045859</v>
       </c>
       <c r="BR28" s="5">
-        <f>BQ28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>679087.72033139074</v>
       </c>
       <c r="BS28" s="5">
-        <f>BR28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>726623.86075458815</v>
       </c>
       <c r="BT28" s="5">
-        <f>BS28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>777487.53100740933</v>
       </c>
       <c r="BU28" s="5">
-        <f>BT28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>831911.65817792807</v>
       </c>
       <c r="BV28" s="5">
-        <f>BU28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>890145.47425038309</v>
       </c>
       <c r="BW28" s="5">
-        <f>BV28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>952455.65744790994</v>
       </c>
       <c r="BX28" s="5">
-        <f>BW28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>1019127.5534692637</v>
       </c>
       <c r="BY28" s="5">
-        <f>BX28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>1090466.4822121123</v>
       </c>
       <c r="BZ28" s="5">
-        <f>BY28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>1166799.1359669601</v>
       </c>
       <c r="CA28" s="5">
-        <f>BZ28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>1248475.0754846474</v>
       </c>
       <c r="CB28" s="5">
-        <f>CA28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>1335868.3307685729</v>
       </c>
       <c r="CC28" s="5">
-        <f>CB28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>1429379.1139223732</v>
       </c>
       <c r="CD28" s="5">
-        <f>CC28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>1529435.6518969394</v>
       </c>
       <c r="CE28" s="5">
-        <f>CD28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>1636496.1475297252</v>
       </c>
       <c r="CF28" s="5">
-        <f>CE28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>1751050.8778568062</v>
       </c>
       <c r="CG28" s="5">
-        <f>CF28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>1873624.4393067828</v>
       </c>
       <c r="CH28" s="5">
-        <f>CG28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>2004778.1500582576</v>
       </c>
       <c r="CI28" s="5">
-        <f>CH28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>2145112.6205623359</v>
       </c>
       <c r="CJ28" s="5">
-        <f>CI28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>2295270.5040016994</v>
       </c>
       <c r="CK28" s="5">
-        <f>CJ28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>2455939.4392818185</v>
       </c>
       <c r="CL28" s="5">
-        <f>CK28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>2627855.2000315459</v>
       </c>
       <c r="CM28" s="5">
-        <f>CL28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>2811805.0640337542</v>
       </c>
       <c r="CN28" s="5">
-        <f>CM28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>3008631.4185161171</v>
       </c>
       <c r="CO28" s="5">
-        <f>CN28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>3219235.6178122456</v>
       </c>
       <c r="CP28" s="5">
-        <f>CO28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>3444582.1110591032</v>
       </c>
       <c r="CQ28" s="5">
-        <f>CP28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>3685702.8588332408</v>
       </c>
       <c r="CR28" s="5">
-        <f>CQ28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>3943702.0589515679</v>
       </c>
       <c r="CS28" s="5">
-        <f>CR28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>4219761.2030781778</v>
       </c>
       <c r="CT28" s="5">
-        <f>CS28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>4515144.4872936504</v>
       </c>
       <c r="CU28" s="5">
-        <f>CT28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>4831204.6014042059</v>
       </c>
       <c r="CV28" s="5">
-        <f>CU28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>5169388.9235025002</v>
       </c>
       <c r="CW28" s="5">
-        <f>CV28*(1+$AH$46)</f>
+        <f t="shared" si="85"/>
         <v>5531246.1481476752</v>
       </c>
       <c r="CX28" s="5"/>
@@ -4816,38 +4820,14 @@
         <f>(AE19/AD19)-1</f>
         <v>0.19945627201715421</v>
       </c>
-      <c r="AF32" s="7">
-        <f t="shared" ref="AF32:AM32" si="100">(AF19/AE19)-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AG32" s="7">
-        <f t="shared" si="100"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AH32" s="7">
-        <f t="shared" si="100"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AI32" s="7">
-        <f t="shared" si="100"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AJ32" s="7">
-        <f t="shared" si="100"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AK32" s="7">
-        <f t="shared" si="100"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AL32" s="7">
-        <f t="shared" si="100"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AM32" s="7">
-        <f t="shared" si="100"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
     </row>
     <row r="33" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
@@ -4862,7 +4842,7 @@
         <v>0.34604734256364456</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" ref="H33:J33" si="101">(H6/D6)-1</f>
+        <f t="shared" ref="H33" si="100">(H6/D6)-1</f>
         <v>0.28643255558174241</v>
       </c>
       <c r="I33" s="7">
@@ -4874,91 +4854,67 @@
         <v>0.21848522087833899</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" ref="K33:K35" si="102">(K6/G6)-1</f>
+        <f t="shared" ref="K33:K35" si="101">(K6/G6)-1</f>
         <v>0.28768796867741742</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" ref="L33:L35" si="103">(L6/H6)-1</f>
+        <f t="shared" ref="L33:L35" si="102">(L6/H6)-1</f>
         <v>0.22053710534351167</v>
       </c>
       <c r="M33" s="7">
-        <f t="shared" ref="M33:M35" si="104">(M6/I6)-1</f>
+        <f t="shared" ref="M33:M35" si="103">(M6/I6)-1</f>
         <v>0.20823359273388919</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" ref="N33:N35" si="105">(N6/J6)-1</f>
+        <f t="shared" ref="N33:N35" si="104">(N6/J6)-1</f>
         <v>0.12550881000000036</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" ref="O33:O35" si="106">(O6/K6)-1</f>
+        <f t="shared" ref="O33:O35" si="105">(O6/K6)-1</f>
         <v>0.12550881000000014</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" ref="P33:P35" si="107">(P6/L6)-1</f>
+        <f t="shared" ref="P33:P35" si="106">(P6/L6)-1</f>
         <v>0.12550881000000014</v>
       </c>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7">
-        <f t="shared" ref="Y33:AC33" si="108">(Y6/X6)-1</f>
+        <f t="shared" ref="Y33:AC33" si="107">(Y6/X6)-1</f>
         <v>0.28239845261121865</v>
       </c>
       <c r="Z33" s="7">
+        <f t="shared" si="107"/>
+        <v>-9.296966649907823E-2</v>
+      </c>
+      <c r="AA33" s="7">
+        <f t="shared" si="107"/>
+        <v>0.20693796480206927</v>
+      </c>
+      <c r="AB33" s="7">
+        <f t="shared" si="107"/>
+        <v>0.24849783765165134</v>
+      </c>
+      <c r="AC33" s="7">
+        <f t="shared" si="107"/>
+        <v>0.26843847710134261</v>
+      </c>
+      <c r="AD33" s="7">
+        <f t="shared" ref="AD33:AE35" si="108">(AD6/AC6)-1</f>
+        <v>0.45264506150462802</v>
+      </c>
+      <c r="AE33" s="7">
         <f t="shared" si="108"/>
-        <v>-9.296966649907823E-2</v>
-      </c>
-      <c r="AA33" s="7">
-        <f t="shared" si="108"/>
-        <v>0.20693796480206927</v>
-      </c>
-      <c r="AB33" s="7">
-        <f t="shared" si="108"/>
-        <v>0.24849783765165134</v>
-      </c>
-      <c r="AC33" s="7">
-        <f t="shared" si="108"/>
-        <v>0.26843847710134261</v>
-      </c>
-      <c r="AD33" s="7">
-        <f>(AD6/AC6)-1</f>
-        <v>0.45264506150462802</v>
-      </c>
-      <c r="AE33" s="7">
-        <f>(AE6/AD6)-1</f>
         <v>0.11998203264070262</v>
       </c>
-      <c r="AF33" s="7">
-        <f t="shared" ref="AF33:AM33" si="109">(AF6/AE6)-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AG33" s="7">
-        <f t="shared" si="109"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AH33" s="7">
-        <f t="shared" si="109"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AI33" s="7">
-        <f t="shared" si="109"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AJ33" s="7">
-        <f t="shared" si="109"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AK33" s="7">
-        <f t="shared" si="109"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AL33" s="7">
-        <f t="shared" si="109"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AM33" s="7">
-        <f t="shared" si="109"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
     </row>
     <row r="34" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -4973,329 +4929,173 @@
         <v>0.16490622979090319</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" ref="H34:J34" si="110">(H7/D7)-1</f>
+        <f t="shared" ref="H34:J34" si="109">(H7/D7)-1</f>
         <v>0.13864993421718452</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>0.11461661341853024</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.8062073478545333E-2</v>
       </c>
       <c r="K34" s="7">
+        <f t="shared" si="101"/>
+        <v>0.10919411547002222</v>
+      </c>
+      <c r="L34" s="7">
         <f t="shared" si="102"/>
-        <v>0.10919411547002222</v>
-      </c>
-      <c r="L34" s="7">
+        <v>9.7486010132432632E-2</v>
+      </c>
+      <c r="M34" s="7">
         <f t="shared" si="103"/>
-        <v>9.7486010132432632E-2</v>
-      </c>
-      <c r="M34" s="7">
+        <v>0.13921977364743809</v>
+      </c>
+      <c r="N34" s="7">
         <f t="shared" si="104"/>
-        <v>0.13921977364743809</v>
-      </c>
-      <c r="N34" s="7">
+        <v>0.12550880999999992</v>
+      </c>
+      <c r="O34" s="7">
         <f t="shared" si="105"/>
         <v>0.12550880999999992</v>
       </c>
-      <c r="O34" s="7">
+      <c r="P34" s="7">
         <f t="shared" si="106"/>
-        <v>0.12550880999999992</v>
-      </c>
-      <c r="P34" s="7">
-        <f t="shared" si="107"/>
         <v>0.12550881000000014</v>
       </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7">
-        <f t="shared" ref="Y34:AC34" si="111">(Y7/X7)-1</f>
+        <f t="shared" ref="Y34:AC34" si="110">(Y7/X7)-1</f>
         <v>-0.19016059138414476</v>
       </c>
       <c r="Z34" s="7">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>0.34156961494071969</v>
       </c>
       <c r="AA34" s="7">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>0.10726156493176386</v>
       </c>
       <c r="AB34" s="7">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>0.12194518999858728</v>
       </c>
       <c r="AC34" s="7">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>0.11164972142654794</v>
       </c>
       <c r="AD34" s="7">
-        <f>(AD7/AC7)-1</f>
+        <f t="shared" si="108"/>
         <v>0.21112243742213166</v>
       </c>
       <c r="AE34" s="7">
-        <f>(AE7/AD7)-1</f>
+        <f t="shared" si="108"/>
         <v>4.8863742635368856E-2</v>
       </c>
-      <c r="AF34" s="7">
-        <f t="shared" ref="AF34:AM34" si="112">(AF7/AE7)-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AG34" s="7">
-        <f t="shared" si="112"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AH34" s="7">
-        <f t="shared" si="112"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AI34" s="7">
-        <f t="shared" si="112"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AJ34" s="7">
-        <f t="shared" si="112"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AK34" s="7">
-        <f t="shared" si="112"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AL34" s="7">
-        <f t="shared" si="112"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AM34" s="7">
-        <f t="shared" si="112"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
     </row>
     <row r="35" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>45</v>
+      <c r="B35" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="7">
-        <f>(G8/C8)-1</f>
-        <v>0.10192195690157257</v>
-      </c>
-      <c r="H35" s="7">
-        <f t="shared" ref="H35:J35" si="113">(H8/D8)-1</f>
-        <v>0.19695321001088129</v>
-      </c>
-      <c r="I35" s="7">
-        <f t="shared" si="113"/>
-        <v>0.11239245835621459</v>
-      </c>
-      <c r="J35" s="7">
-        <f t="shared" si="113"/>
-        <v>7.547169811320753E-3</v>
-      </c>
-      <c r="K35" s="7">
-        <f t="shared" si="102"/>
-        <v>0.16283298097251575</v>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" si="103"/>
-        <v>3.0037454545454478E-2</v>
-      </c>
-      <c r="M35" s="7">
-        <f t="shared" si="104"/>
-        <v>0.15224528813559313</v>
-      </c>
-      <c r="N35" s="7">
-        <f t="shared" si="105"/>
-        <v>0.12550880999999992</v>
-      </c>
-      <c r="O35" s="7">
-        <f t="shared" si="106"/>
-        <v>0.12550881000000014</v>
-      </c>
-      <c r="P35" s="7">
-        <f t="shared" si="107"/>
-        <v>0.12550881000000014</v>
-      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7">
-        <f t="shared" ref="Y35:AC35" si="114">(Y8/X8)-1</f>
-        <v>0.18359638472952922</v>
+        <f>Y28/X28-1</f>
+        <v>-3.1362007168458828E-2</v>
       </c>
       <c r="Z35" s="7">
-        <f t="shared" si="114"/>
-        <v>5.9550945976749592E-2</v>
+        <f t="shared" ref="Z35:AM35" si="111">Z28/Y28-1</f>
+        <v>0.24100491747407382</v>
       </c>
       <c r="AA35" s="7">
-        <f t="shared" si="114"/>
-        <v>4.9749905878556433E-2</v>
+        <f t="shared" si="111"/>
+        <v>-0.34987641727804153</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" si="114"/>
-        <v>4.4932882467465962E-2</v>
+        <f t="shared" si="111"/>
+        <v>1.3679922756623015</v>
       </c>
       <c r="AC35" s="7">
-        <f t="shared" si="114"/>
-        <v>5.4670262319195917E-2</v>
+        <f t="shared" si="111"/>
+        <v>0.12846585117227316</v>
       </c>
       <c r="AD35" s="7">
-        <f>(AD8/AC8)-1</f>
-        <v>0.12036262203626213</v>
+        <f t="shared" si="111"/>
+        <v>0.38368600528443353</v>
       </c>
       <c r="AE35" s="7">
-        <f>(AE8/AD8)-1</f>
-        <v>2.7470019502883858E-2</v>
-      </c>
-      <c r="AF35" s="7">
-        <f t="shared" ref="AF35:AM35" si="115">(AF8/AE8)-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AG35" s="7">
-        <f t="shared" si="115"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AH35" s="7">
-        <f t="shared" si="115"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AI35" s="7">
-        <f t="shared" si="115"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AJ35" s="7">
-        <f t="shared" si="115"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AK35" s="7">
-        <f t="shared" si="115"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AL35" s="7">
-        <f t="shared" si="115"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AM35" s="7">
-        <f t="shared" si="115"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
+        <f t="shared" si="111"/>
+        <v>0.1871521600757291</v>
+      </c>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
     </row>
     <row r="36" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7">
-        <f>(G10/C10)-1</f>
-        <v>0.4215775158658206</v>
-      </c>
-      <c r="H36" s="7">
-        <f t="shared" ref="H36:J36" si="116">(H10/D10)-1</f>
-        <v>0.37019790454016288</v>
-      </c>
-      <c r="I36" s="7">
-        <f t="shared" si="116"/>
-        <v>0.34153005464480879</v>
-      </c>
-      <c r="J36" s="7">
-        <f t="shared" si="116"/>
-        <v>0.26086956521739135</v>
-      </c>
-      <c r="K36" s="7">
-        <f t="shared" ref="K36:K37" si="117">(K10/G10)-1</f>
-        <v>0.21918367346938772</v>
-      </c>
-      <c r="L36" s="7">
-        <f t="shared" ref="L36:L37" si="118">(L10/H10)-1</f>
-        <v>0.11528201642594182</v>
-      </c>
-      <c r="M36" s="7">
-        <f t="shared" ref="M36:M37" si="119">(M10/I10)-1</f>
-        <v>0.18015787721850463</v>
-      </c>
-      <c r="N36" s="7">
-        <f t="shared" ref="N36:N37" si="120">(N10/J10)-1</f>
-        <v>0.12550881000000014</v>
-      </c>
-      <c r="O36" s="7">
-        <f t="shared" ref="O36:O37" si="121">(O10/K10)-1</f>
-        <v>0.12550881000000014</v>
-      </c>
-      <c r="P36" s="7">
-        <f t="shared" ref="P36:P37" si="122">(P10/L10)-1</f>
-        <v>0.12550881000000014</v>
-      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
-      <c r="Y36" s="7">
-        <f t="shared" ref="Y36:AC36" si="123">(Y11/X11)-1</f>
-        <v>0.24182576256308974</v>
-      </c>
-      <c r="Z36" s="7">
-        <f t="shared" si="123"/>
-        <v>-0.59869234847146147</v>
-      </c>
-      <c r="AA36" s="7">
-        <f t="shared" si="123"/>
-        <v>1.3157199471598413</v>
-      </c>
-      <c r="AB36" s="7">
-        <f t="shared" si="123"/>
-        <v>0.28427457691576352</v>
-      </c>
-      <c r="AC36" s="7">
-        <f t="shared" si="123"/>
-        <v>0.26206692330470838</v>
-      </c>
-      <c r="AD36" s="7">
-        <f>(AD11/AC11)-1</f>
-        <v>0.25035194744251532</v>
-      </c>
-      <c r="AE36" s="7">
-        <f>(AE11/AD11)-1</f>
-        <v>8.753987614937131E-2</v>
-      </c>
-      <c r="AF36" s="7">
-        <f t="shared" ref="AF36:AM36" si="124">(AF11/AE11)-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AG36" s="7">
-        <f t="shared" si="124"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AH36" s="7">
-        <f t="shared" si="124"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AI36" s="7">
-        <f t="shared" si="124"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AJ36" s="7">
-        <f t="shared" si="124"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AK36" s="7">
-        <f t="shared" si="124"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AL36" s="7">
-        <f t="shared" si="124"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AM36" s="7">
-        <f t="shared" si="124"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
     </row>
     <row r="37" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -5306,61 +5106,61 @@
         <v>0.36695831188883177</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" ref="H37:J37" si="125">(H11/D11)-1</f>
+        <f t="shared" ref="H37:J37" si="112">(H11/D11)-1</f>
         <v>0.28415758591785423</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="125"/>
+        <f t="shared" si="112"/>
         <v>0.2265722615576844</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="125"/>
+        <f t="shared" si="112"/>
         <v>0.15333070555774531</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="117"/>
+        <f t="shared" ref="K36:K37" si="113">(K11/G11)-1</f>
         <v>0.13470632530120485</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="118"/>
+        <f t="shared" ref="L36:L37" si="114">(L11/H11)-1</f>
         <v>1.3117950391644984E-2</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="119"/>
+        <f t="shared" ref="M36:M37" si="115">(M11/I11)-1</f>
         <v>8.5677148387096835E-2</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="120"/>
+        <f t="shared" ref="N36:N37" si="116">(N11/J11)-1</f>
         <v>0.12550881000000014</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="121"/>
+        <f t="shared" ref="O36:O37" si="117">(O11/K11)-1</f>
         <v>0.12550880999999992</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="122"/>
+        <f t="shared" ref="P36:P37" si="118">(P11/L11)-1</f>
         <v>0.12550881000000014</v>
       </c>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7">
-        <f t="shared" ref="Y37:AC37" si="126">(Y12/X12)-1</f>
+        <f t="shared" ref="Y37:AC37" si="119">(Y12/X12)-1</f>
         <v>0.54970530451866395</v>
       </c>
       <c r="Z37" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>-0.29741379310344829</v>
       </c>
       <c r="AA37" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>5.4853843377841827E-2</v>
       </c>
       <c r="AB37" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>4.7553882996920871E-2</v>
       </c>
       <c r="AC37" s="7">
-        <f t="shared" si="126"/>
+        <f t="shared" si="119"/>
         <v>4.6538210320052231E-2</v>
       </c>
       <c r="AD37" s="7">
@@ -5371,53 +5171,29 @@
         <f>(AE12/AD12)-1</f>
         <v>1.996695125309822E-2</v>
       </c>
-      <c r="AF37" s="7">
-        <f t="shared" ref="AF37:AM37" si="127">(AF12/AE12)-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AG37" s="7">
-        <f t="shared" si="127"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AH37" s="7">
-        <f t="shared" si="127"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AI37" s="7">
-        <f t="shared" si="127"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AJ37" s="7">
-        <f t="shared" si="127"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AK37" s="7">
-        <f t="shared" si="127"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AL37" s="7">
-        <f t="shared" si="127"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AM37" s="7">
-        <f t="shared" si="127"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
     </row>
     <row r="38" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7">
-        <f t="shared" ref="C38:E38" si="128">(C27/C26)</f>
+        <f t="shared" ref="C38:E38" si="120">(C27/C26)</f>
         <v>0.13836516993301909</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="120"/>
         <v>0.15673228990565524</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="128"/>
+        <f t="shared" si="120"/>
         <v>0.10321420283128337</v>
       </c>
       <c r="F38" s="7">
@@ -5425,230 +5201,182 @@
         <v>0.15186807523834064</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" ref="G38:J38" si="129">(G27/G26)</f>
+        <f t="shared" ref="G38:J38" si="121">(G27/G26)</f>
         <v>9.2574546871954783E-4</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="129"/>
+        <f t="shared" si="121"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="129"/>
+        <f t="shared" si="121"/>
         <v>0.17147102526002972</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="129"/>
+        <f t="shared" si="121"/>
         <v>0.19777639334834907</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" ref="K38:P38" si="130">(K27/K26)</f>
+        <f t="shared" ref="K38:P38" si="122">(K27/K26)</f>
         <v>0.17</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="130"/>
+        <f t="shared" si="122"/>
         <v>0.17</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="130"/>
+        <f t="shared" si="122"/>
         <v>0.17</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="130"/>
+        <f t="shared" si="122"/>
         <v>0.17</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="130"/>
+        <f t="shared" si="122"/>
         <v>0.17</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="130"/>
+        <f t="shared" si="122"/>
         <v>0.17</v>
       </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7">
-        <f t="shared" ref="Y38:AC38" si="131">(Y27/Y26)</f>
+        <f t="shared" ref="Y38:AC38" si="123">(Y27/Y26)</f>
         <v>0.22520653363008789</v>
       </c>
       <c r="Z38" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="123"/>
         <v>9.4497140218124984E-2</v>
       </c>
       <c r="AA38" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="123"/>
         <v>0.50743118720646807</v>
       </c>
       <c r="AB38" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="123"/>
         <v>0.10181285478850027</v>
       </c>
       <c r="AC38" s="7">
-        <f t="shared" si="131"/>
+        <f t="shared" si="123"/>
         <v>0.14903143977246522</v>
       </c>
       <c r="AD38" s="7">
-        <f t="shared" ref="AD38:AE38" si="132">(AD27/AD26)</f>
+        <f t="shared" ref="AD38:AE38" si="124">(AD27/AD26)</f>
         <v>0.13826615285083402</v>
       </c>
       <c r="AE38" s="7">
-        <f t="shared" si="132"/>
+        <f t="shared" si="124"/>
         <v>0.13113383343685794</v>
       </c>
-      <c r="AF38" s="7">
-        <f t="shared" ref="AF38:AM38" si="133">(AF27/AF26)</f>
-        <v>0.15</v>
-      </c>
-      <c r="AG38" s="7">
-        <f t="shared" si="133"/>
-        <v>0.15</v>
-      </c>
-      <c r="AH38" s="7">
-        <f t="shared" si="133"/>
-        <v>0.15</v>
-      </c>
-      <c r="AI38" s="7">
-        <f t="shared" si="133"/>
-        <v>0.15</v>
-      </c>
-      <c r="AJ38" s="7">
-        <f t="shared" si="133"/>
-        <v>0.15</v>
-      </c>
-      <c r="AK38" s="7">
-        <f t="shared" si="133"/>
-        <v>0.15</v>
-      </c>
-      <c r="AL38" s="7">
-        <f t="shared" si="133"/>
-        <v>0.15</v>
-      </c>
-      <c r="AM38" s="7">
-        <f t="shared" si="133"/>
-        <v>0.15</v>
-      </c>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
     </row>
     <row r="39" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="7">
-        <f>C19/C18</f>
+        <f t="shared" ref="C39:J39" si="125">C19/C18</f>
         <v>0.29611885665069709</v>
       </c>
       <c r="D39" s="7">
-        <f>D19/D18</f>
+        <f t="shared" si="125"/>
         <v>0.32951063237069367</v>
       </c>
       <c r="E39" s="7">
-        <f>E19/E18</f>
+        <f t="shared" si="125"/>
         <v>0.31278473121373424</v>
       </c>
       <c r="F39" s="7">
-        <f>F19/F18</f>
+        <f t="shared" si="125"/>
         <v>0.30315045935170742</v>
       </c>
       <c r="G39" s="7">
-        <f>G19/G18</f>
+        <f t="shared" si="125"/>
         <v>0.3011231987995675</v>
       </c>
       <c r="H39" s="7">
-        <f>H19/H18</f>
+        <f t="shared" si="125"/>
         <v>0.32786885245901637</v>
       </c>
       <c r="I39" s="7">
-        <f>I19/I18</f>
+        <f t="shared" si="125"/>
         <v>0.31667004664368281</v>
       </c>
       <c r="J39" s="7">
-        <f>J19/J18</f>
+        <f t="shared" si="125"/>
         <v>0.31645959741885776</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" ref="K39:P39" si="134">K19/K18</f>
+        <f t="shared" ref="K39:P39" si="126">K19/K18</f>
         <v>0.31446252548686127</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="126"/>
         <v>0.31247147656636493</v>
       </c>
       <c r="M39" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="126"/>
         <v>0.31048651596275939</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="126"/>
         <v>0.30850770801606447</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="126"/>
         <v>0.30653511609549894</v>
       </c>
       <c r="P39" s="7">
-        <f t="shared" si="134"/>
+        <f t="shared" si="126"/>
         <v>0.30456880259435265</v>
       </c>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7">
-        <f t="shared" ref="Y39:AC39" si="135">Y19/Y18</f>
+        <f t="shared" ref="Y39:AC39" si="127">Y19/Y18</f>
         <v>0.35961120740724489</v>
       </c>
       <c r="Z39" s="7">
-        <f t="shared" si="135"/>
+        <f t="shared" si="127"/>
         <v>0.35477524308539832</v>
       </c>
       <c r="AA39" s="7">
-        <f t="shared" si="135"/>
+        <f t="shared" si="127"/>
         <v>0.34752627763682492</v>
       </c>
       <c r="AB39" s="7">
-        <f t="shared" si="135"/>
+        <f t="shared" si="127"/>
         <v>0.34098042799361111</v>
       </c>
       <c r="AC39" s="7">
-        <f t="shared" si="135"/>
+        <f t="shared" si="127"/>
         <v>0.32218998007202043</v>
       </c>
       <c r="AD39" s="7">
-        <f t="shared" ref="AD39:AE39" si="136">AD19/AD18</f>
+        <f t="shared" ref="AD39:AE39" si="128">AD19/AD18</f>
         <v>0.31074199228975297</v>
       </c>
       <c r="AE39" s="7">
-        <f t="shared" si="136"/>
+        <f t="shared" si="128"/>
         <v>0.31598325515710901</v>
       </c>
-      <c r="AF39" s="7">
-        <f t="shared" ref="AF39:AM39" si="137">AF19/AF18</f>
-        <v>0.3159832551571089</v>
-      </c>
-      <c r="AG39" s="7">
-        <f t="shared" si="137"/>
-        <v>0.3159832551571089</v>
-      </c>
-      <c r="AH39" s="7">
-        <f t="shared" si="137"/>
-        <v>0.31598325515710896</v>
-      </c>
-      <c r="AI39" s="7">
-        <f t="shared" si="137"/>
-        <v>0.31598325515710901</v>
-      </c>
-      <c r="AJ39" s="7">
-        <f t="shared" si="137"/>
-        <v>0.3159832551571089</v>
-      </c>
-      <c r="AK39" s="7">
-        <f t="shared" si="137"/>
-        <v>0.31598325515710896</v>
-      </c>
-      <c r="AL39" s="7">
-        <f t="shared" si="137"/>
-        <v>0.31598325515710901</v>
-      </c>
-      <c r="AM39" s="7">
-        <f t="shared" si="137"/>
-        <v>0.31598325515710896</v>
-      </c>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C40" s="7"/>
@@ -5663,198 +5391,219 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="7"/>
+      <c r="Y40" s="7">
+        <f t="shared" ref="Y40:AD40" si="129">Y28/X28-1</f>
+        <v>-3.1362007168458828E-2</v>
+      </c>
+      <c r="Z40" s="7">
+        <f t="shared" si="129"/>
+        <v>0.24100491747407382</v>
+      </c>
+      <c r="AA40" s="7">
+        <f t="shared" si="129"/>
+        <v>-0.34987641727804153</v>
+      </c>
+      <c r="AB40" s="7">
+        <f t="shared" si="129"/>
+        <v>1.3679922756623015</v>
+      </c>
+      <c r="AC40" s="7">
+        <f t="shared" si="129"/>
+        <v>0.12846585117227316</v>
+      </c>
+      <c r="AD40" s="7">
+        <f t="shared" si="129"/>
+        <v>0.38368600528443353</v>
+      </c>
+      <c r="AE40" s="7">
+        <f>AE28/AD28-1</f>
+        <v>0.1871521600757291</v>
+      </c>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
     </row>
     <row r="41" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="2">
-        <f>C42-C52</f>
-        <v>53587</v>
-      </c>
-      <c r="D41" s="2">
-        <f>D42-D52</f>
-        <v>97196</v>
-      </c>
-      <c r="E41" s="2">
-        <f>E42-E52</f>
-        <v>54814</v>
-      </c>
-      <c r="F41" s="2">
-        <f>F42-F52</f>
-        <v>40590</v>
-      </c>
-      <c r="G41" s="2">
-        <f>G42-G52</f>
-        <v>50563</v>
-      </c>
-      <c r="H41" s="2">
-        <f>H42-H52</f>
-        <v>62090</v>
-      </c>
-      <c r="I41" s="2">
-        <f>I42-I52</f>
-        <v>54985</v>
-      </c>
-      <c r="J41" s="2">
-        <f>J42-J52</f>
-        <v>46595</v>
-      </c>
-      <c r="K41" s="2">
-        <f>K42-K52</f>
-        <v>65839.630499999999</v>
-      </c>
-      <c r="L41" s="2">
-        <f>L42-L52</f>
-        <v>85571.359236999997</v>
-      </c>
-      <c r="M41" s="2">
-        <f>M42-M52</f>
-        <v>105807.28305533002</v>
-      </c>
-      <c r="N41" s="2">
-        <f>N42-N52</f>
-        <v>126564.93495450211</v>
-      </c>
-      <c r="O41" s="2">
-        <f t="shared" ref="O41:P41" si="138">O42-O52</f>
-        <v>147862.29945403812</v>
-      </c>
-      <c r="P41" s="2">
-        <f t="shared" si="138"/>
-        <v>169717.82835061339</v>
-      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
     </row>
     <row r="42" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" ref="C42:N42" si="130">C43-C53</f>
+        <v>53587</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="130"/>
+        <v>97196</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="130"/>
+        <v>54814</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="130"/>
+        <v>40590</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="130"/>
+        <v>50563</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="130"/>
+        <v>62090</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="130"/>
+        <v>54985</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="130"/>
+        <v>46595</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="130"/>
+        <v>65839.630499999999</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="130"/>
+        <v>85571.359236999997</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="130"/>
+        <v>105807.28305533002</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="130"/>
+        <v>126564.93495450211</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" ref="O42:P42" si="131">O43-O53</f>
+        <v>147862.29945403812</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="131"/>
+        <v>169717.82835061339</v>
+      </c>
+    </row>
+    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="2">
         <f>14224+89437</f>
         <v>103661</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <f>88151+14432</f>
         <v>102583</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E43" s="2">
         <f>90664+14224</f>
         <v>104888</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="2">
         <f>90664</f>
         <v>90664</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G43" s="2">
         <f>89437+11165</f>
         <v>100602</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H43" s="2">
         <f>20604+89746</f>
         <v>110350</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I43" s="2">
         <f>12498+90664</f>
         <v>103162</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J43" s="2">
         <f>79696+13931</f>
         <v>93627</v>
       </c>
-      <c r="K42" s="2">
-        <f>K28+J42</f>
+      <c r="K43" s="2">
+        <f>K28+J43</f>
         <v>111460.67050000001</v>
       </c>
-      <c r="L42" s="2">
-        <f t="shared" ref="L42:P42" si="139">L28+K42</f>
+      <c r="L43" s="2">
+        <f t="shared" ref="L43:P43" si="132">L28+K43</f>
         <v>129823.768037</v>
       </c>
-      <c r="M42" s="2">
-        <f t="shared" si="139"/>
+      <c r="M43" s="2">
+        <f t="shared" si="132"/>
         <v>148732.11959133</v>
       </c>
-      <c r="N42" s="2">
-        <f t="shared" si="139"/>
+      <c r="N43" s="2">
+        <f t="shared" si="132"/>
         <v>168202.02639442211</v>
       </c>
-      <c r="O42" s="2">
-        <f t="shared" si="139"/>
+      <c r="O43" s="2">
+        <f t="shared" si="132"/>
         <v>188250.27815076051</v>
       </c>
-      <c r="P42" s="2">
-        <f t="shared" si="139"/>
+      <c r="P43" s="2">
+        <f t="shared" si="132"/>
         <v>208894.16768643411</v>
       </c>
-    </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="2">
-        <v>38043</v>
-      </c>
-      <c r="D43" s="2">
-        <v>27312</v>
-      </c>
-      <c r="E43" s="2">
-        <v>38043</v>
-      </c>
-      <c r="F43" s="2">
-        <v>38043</v>
-      </c>
-      <c r="G43" s="2">
-        <v>27349</v>
-      </c>
-      <c r="H43" s="2">
-        <v>33520</v>
-      </c>
-      <c r="I43" s="2">
-        <v>32613</v>
-      </c>
-      <c r="J43" s="2">
-        <v>44261</v>
-      </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
     </row>
     <row r="44" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2">
-        <v>2636</v>
+        <v>38043</v>
       </c>
       <c r="D44" s="2">
-        <v>1924</v>
+        <v>27312</v>
       </c>
       <c r="E44" s="2">
-        <v>2636</v>
+        <v>38043</v>
       </c>
       <c r="F44" s="2">
-        <v>2636</v>
+        <v>38043</v>
       </c>
       <c r="G44" s="2">
-        <v>3411</v>
+        <v>27349</v>
       </c>
       <c r="H44" s="2">
-        <v>3019</v>
+        <v>33520</v>
       </c>
       <c r="I44" s="2">
-        <v>3296</v>
+        <v>32613</v>
       </c>
       <c r="J44" s="2">
-        <v>3742</v>
+        <v>44261</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -5863,452 +5612,485 @@
     </row>
     <row r="45" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2">
-        <v>59715</v>
+        <v>2636</v>
       </c>
       <c r="D45" s="2">
-        <v>51737</v>
+        <v>1924</v>
       </c>
       <c r="E45" s="2">
-        <v>59715</v>
+        <v>2636</v>
       </c>
       <c r="F45" s="2">
-        <v>59715</v>
+        <v>2636</v>
       </c>
       <c r="G45" s="2">
-        <v>63772</v>
+        <v>3411</v>
       </c>
       <c r="H45" s="2">
-        <v>67214</v>
+        <v>3019</v>
       </c>
       <c r="I45" s="2">
-        <v>70298</v>
+        <v>3296</v>
       </c>
       <c r="J45" s="2">
-        <v>74398</v>
+        <v>3742</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="AG45" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH45" s="17">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AJ45" s="1" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="46" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2">
-        <v>11088</v>
+        <v>59715</v>
       </c>
       <c r="D46" s="2">
-        <v>10298</v>
+        <v>51737</v>
       </c>
       <c r="E46" s="2">
-        <v>11088</v>
+        <v>59715</v>
       </c>
       <c r="F46" s="2">
-        <v>11088</v>
+        <v>59715</v>
       </c>
       <c r="G46" s="2">
-        <v>11575</v>
+        <v>63772</v>
       </c>
       <c r="H46" s="2">
-        <v>12354</v>
+        <v>67214</v>
       </c>
       <c r="I46" s="2">
-        <v>12916</v>
+        <v>70298</v>
       </c>
       <c r="J46" s="2">
-        <v>13148</v>
+        <v>74398</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="AG46" s="18" t="s">
+      <c r="AG46" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH46" s="27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="AH46" s="19">
-        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="47" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2">
-        <v>5984</v>
+        <v>11088</v>
       </c>
       <c r="D47" s="2">
-        <v>3794</v>
+        <v>10298</v>
       </c>
       <c r="E47" s="2">
-        <v>5984</v>
+        <v>11088</v>
       </c>
       <c r="F47" s="2">
-        <v>5984</v>
+        <v>11088</v>
       </c>
       <c r="G47" s="2">
-        <v>6393</v>
+        <v>11575</v>
       </c>
       <c r="H47" s="2">
-        <v>6994</v>
+        <v>12354</v>
       </c>
       <c r="I47" s="2">
-        <v>6907</v>
+        <v>12916</v>
       </c>
       <c r="J47" s="2">
-        <v>6891</v>
+        <v>13148</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="AG47" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH47" s="21">
-        <f>NPV(AH45,AF28:CW28)</f>
-        <v>2963933.9243122642</v>
-      </c>
-      <c r="AI47" s="15"/>
+      <c r="AG47" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH47" s="29">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
     <row r="48" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2">
-        <v>49711</v>
+        <v>5984</v>
       </c>
       <c r="D48" s="2">
-        <v>44219</v>
+        <v>3794</v>
       </c>
       <c r="E48" s="2">
-        <v>49711</v>
+        <v>5984</v>
       </c>
       <c r="F48" s="2">
-        <v>49711</v>
+        <v>5984</v>
       </c>
       <c r="G48" s="2">
-        <v>50455</v>
+        <v>6393</v>
       </c>
       <c r="H48" s="2">
-        <v>50921</v>
+        <v>6994</v>
       </c>
       <c r="I48" s="2">
-        <v>67371</v>
+        <v>6907</v>
       </c>
       <c r="J48" s="2">
-        <v>67524</v>
+        <v>6891</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="AG48" s="20"/>
-      <c r="AH48" s="22">
-        <f>AH47/Main!M4</f>
-        <v>397.47001801156824</v>
-      </c>
-      <c r="AJ48" s="2"/>
-    </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AG48" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH48" s="31">
+        <f>NPV(AH47,AF28:CW28)</f>
+        <v>2963933.9243122642</v>
+      </c>
+      <c r="AI48" s="15"/>
+    </row>
+    <row r="49" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2">
-        <v>333799</v>
+        <v>49711</v>
       </c>
       <c r="D49" s="2">
-        <v>304137</v>
+        <v>44219</v>
       </c>
       <c r="E49" s="2">
-        <v>333779</v>
+        <v>49711</v>
       </c>
       <c r="F49" s="2">
-        <v>333779</v>
+        <v>49711</v>
       </c>
       <c r="G49" s="2">
-        <v>335418</v>
+        <v>50455</v>
       </c>
       <c r="H49" s="2">
-        <v>340389</v>
+        <v>50921</v>
       </c>
       <c r="I49" s="2">
-        <v>344607</v>
+        <v>67371</v>
       </c>
       <c r="J49" s="2">
-        <v>364840</v>
+        <v>67524</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="AG49" s="20"/>
-      <c r="AH49" s="23"/>
-    </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="31">
+        <f>AH48/Main!M4</f>
+        <v>397.47001801156824</v>
+      </c>
+      <c r="AJ49" s="2"/>
+    </row>
+    <row r="50" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2">
+        <v>333799</v>
+      </c>
+      <c r="D50" s="2">
+        <v>304137</v>
+      </c>
+      <c r="E50" s="2">
+        <v>333779</v>
+      </c>
+      <c r="F50" s="2">
+        <v>333779</v>
+      </c>
+      <c r="G50" s="2">
+        <v>335418</v>
+      </c>
+      <c r="H50" s="2">
+        <v>340389</v>
+      </c>
+      <c r="I50" s="2">
+        <v>344607</v>
+      </c>
+      <c r="J50" s="2">
+        <v>364840</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="AG50" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH50" s="25">
-        <f>(AH48/Main!M3)-1</f>
-        <v>0.40493449510999335</v>
-      </c>
-    </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="2">
-        <v>8072</v>
-      </c>
-      <c r="D51" s="2">
-        <v>12770</v>
-      </c>
-      <c r="E51" s="2">
-        <v>8072</v>
-      </c>
-      <c r="F51" s="2">
-        <v>15163</v>
-      </c>
-      <c r="G51" s="2">
-        <v>14832</v>
-      </c>
-      <c r="H51" s="2">
-        <v>15314</v>
-      </c>
-      <c r="I51" s="2">
-        <v>16085</v>
-      </c>
-      <c r="J51" s="2">
-        <v>19000</v>
-      </c>
+      <c r="AG50" s="17"/>
+      <c r="AH50" s="22"/>
+    </row>
+    <row r="51" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="AH51" s="7"/>
-    </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AG51" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH51" s="33">
+        <f>(AH49/282.3)-1</f>
+        <v>0.40797030822376268</v>
+      </c>
+    </row>
+    <row r="52" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8072</v>
+      </c>
+      <c r="D52" s="2">
+        <v>12770</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8072</v>
+      </c>
+      <c r="F52" s="2">
+        <v>15163</v>
+      </c>
+      <c r="G52" s="2">
+        <v>14832</v>
+      </c>
+      <c r="H52" s="2">
+        <v>15314</v>
+      </c>
+      <c r="I52" s="2">
+        <v>16085</v>
+      </c>
+      <c r="J52" s="2">
+        <v>19000</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="AH52" s="7"/>
+    </row>
+    <row r="53" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="2">
         <v>50074</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D53" s="2">
         <v>5387</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="2">
         <v>50074</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F53" s="2">
         <v>50074</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G53" s="2">
         <v>50039</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H53" s="2">
         <v>48260</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I53" s="2">
         <v>48177</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J53" s="2">
         <v>47032</v>
       </c>
-      <c r="K52" s="2">
-        <f>J52*0.97</f>
+      <c r="K53" s="2">
+        <f>J53*0.97</f>
         <v>45621.04</v>
       </c>
-      <c r="L52" s="2">
-        <f t="shared" ref="L52:P52" si="140">K52*0.97</f>
+      <c r="L53" s="2">
+        <f t="shared" ref="L53:P53" si="133">K53*0.97</f>
         <v>44252.408799999997</v>
       </c>
-      <c r="M52" s="2">
-        <f t="shared" si="140"/>
+      <c r="M53" s="2">
+        <f t="shared" si="133"/>
         <v>42924.836535999995</v>
       </c>
-      <c r="N52" s="2">
-        <f t="shared" si="140"/>
+      <c r="N53" s="2">
+        <f t="shared" si="133"/>
         <v>41637.091439919997</v>
       </c>
-      <c r="O52" s="2">
-        <f t="shared" si="140"/>
+      <c r="O53" s="2">
+        <f t="shared" si="133"/>
         <v>40387.978696722399</v>
       </c>
-      <c r="P52" s="2">
-        <f t="shared" si="140"/>
+      <c r="P53" s="2">
+        <f t="shared" si="133"/>
         <v>39176.339335820725</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="2">
+    <row r="54" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2">
         <v>13427</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D54" s="2">
         <v>12544</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E54" s="2">
         <v>13427</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F54" s="2">
         <v>13427</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G54" s="2">
         <v>14346</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H54" s="2">
         <v>14747</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I54" s="2">
         <v>15154</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J54" s="2">
         <v>15526</v>
-      </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="2">
-        <v>141988</v>
-      </c>
-      <c r="D54" s="2">
-        <v>130236</v>
-      </c>
-      <c r="E54" s="2">
-        <v>141988</v>
-      </c>
-      <c r="F54" s="2">
-        <v>141988</v>
-      </c>
-      <c r="G54" s="2">
-        <v>151978</v>
-      </c>
-      <c r="H54" s="2">
-        <v>160010</v>
-      </c>
-      <c r="I54" s="2">
-        <v>162924</v>
-      </c>
-      <c r="J54" s="2">
-        <v>166542</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2">
-        <v>333779</v>
+        <v>141988</v>
       </c>
       <c r="D55" s="2">
-        <v>304137</v>
+        <v>130236</v>
       </c>
       <c r="E55" s="2">
-        <v>333779</v>
+        <v>141988</v>
       </c>
       <c r="F55" s="2">
-        <v>333779</v>
+        <v>141988</v>
       </c>
       <c r="G55" s="2">
-        <v>335418</v>
+        <v>151978</v>
       </c>
       <c r="H55" s="2">
-        <v>340389</v>
+        <v>160010</v>
       </c>
       <c r="I55" s="2">
-        <v>344607</v>
+        <v>162924</v>
       </c>
       <c r="J55" s="2">
-        <v>364840</v>
+        <v>166542</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+    <row r="56" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2">
+        <v>333779</v>
+      </c>
+      <c r="D56" s="2">
+        <v>304137</v>
+      </c>
+      <c r="E56" s="2">
+        <v>333779</v>
+      </c>
+      <c r="F56" s="2">
+        <v>333779</v>
+      </c>
+      <c r="G56" s="2">
+        <v>335418</v>
+      </c>
+      <c r="H56" s="2">
+        <v>340389</v>
+      </c>
+      <c r="I56" s="2">
+        <v>344607</v>
+      </c>
+      <c r="J56" s="2">
+        <v>364840</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="59" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="F59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="I59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M58" s="1" t="s">
+      <c r="M59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6316,9 +6098,10 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D165E763-050A-42FA-93EB-F4AF3AB9FE9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="AD3:AD4" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MSFT.xlsx
+++ b/MSFT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97878402-54F6-4173-8F2E-4567C32B1B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A7B801-1061-4BF8-9923-9A77D73E0E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{505C5DB6-6863-4712-9628-F26C757D37C6}"/>
   </bookViews>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>282.3</v>
+        <v>291.91000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="M5" s="2">
         <f>PRODUCT(M4,M3)</f>
-        <v>2105111.1</v>
+        <v>2176772.87</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="M8" s="2">
         <f>SUM(M5,-M6,M7)</f>
-        <v>2050126.1</v>
+        <v>2121787.87</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1132,10 +1132,10 @@
   <dimension ref="A1:DH59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH51" sqref="AH51"/>
+      <selection pane="bottomRight" activeCell="AH47" sqref="AH47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4313,251 +4313,251 @@
       </c>
       <c r="AN28" s="5">
         <f>AM28*(1+$AH$46)</f>
-        <v>89209.796115016972</v>
+        <v>87959.191496582149</v>
       </c>
       <c r="AO28" s="5">
         <f t="shared" ref="AO28:CW28" si="85">AN28*(1+$AH$46)</f>
-        <v>95454.481843068163</v>
+        <v>92796.947028894167</v>
       </c>
       <c r="AP28" s="5">
         <f t="shared" si="85"/>
-        <v>102136.29557208293</v>
+        <v>97900.779115483339</v>
       </c>
       <c r="AQ28" s="5">
         <f t="shared" si="85"/>
-        <v>109285.83626212875</v>
+        <v>103285.32196683492</v>
       </c>
       <c r="AR28" s="5">
         <f t="shared" si="85"/>
-        <v>116935.84480047777</v>
+        <v>108966.01467501084</v>
       </c>
       <c r="AS28" s="5">
         <f t="shared" si="85"/>
-        <v>125121.35393651122</v>
+        <v>114959.14548213643</v>
       </c>
       <c r="AT28" s="5">
         <f t="shared" si="85"/>
-        <v>133879.848712067</v>
+        <v>121281.89848365393</v>
       </c>
       <c r="AU28" s="5">
         <f t="shared" si="85"/>
-        <v>143251.43812191169</v>
+        <v>127952.40290025489</v>
       </c>
       <c r="AV28" s="5">
         <f t="shared" si="85"/>
-        <v>153279.03879044551</v>
+        <v>134989.78505976891</v>
       </c>
       <c r="AW28" s="5">
         <f t="shared" si="85"/>
-        <v>164008.57150577669</v>
+        <v>142414.22323805621</v>
       </c>
       <c r="AX28" s="5">
         <f t="shared" si="85"/>
-        <v>175489.17151118108</v>
+        <v>150247.00551614928</v>
       </c>
       <c r="AY28" s="5">
         <f t="shared" si="85"/>
-        <v>187773.41351696377</v>
+        <v>158510.59081953746</v>
       </c>
       <c r="AZ28" s="5">
         <f t="shared" si="85"/>
-        <v>200917.55246315125</v>
+        <v>167228.67331461201</v>
       </c>
       <c r="BA28" s="5">
         <f t="shared" si="85"/>
-        <v>214981.78113557186</v>
+        <v>176426.25034691565</v>
       </c>
       <c r="BB28" s="5">
         <f t="shared" si="85"/>
-        <v>230030.50581506192</v>
+        <v>186129.69411599601</v>
       </c>
       <c r="BC28" s="5">
         <f t="shared" si="85"/>
-        <v>246132.64122211628</v>
+        <v>196366.82729237579</v>
       </c>
       <c r="BD28" s="5">
         <f t="shared" si="85"/>
-        <v>263361.92610766442</v>
+        <v>207167.00279345646</v>
       </c>
       <c r="BE28" s="5">
         <f t="shared" si="85"/>
-        <v>281797.26093520096</v>
+        <v>218561.18794709654</v>
       </c>
       <c r="BF28" s="5">
         <f t="shared" si="85"/>
-        <v>301523.06920066505</v>
+        <v>230582.05328418684</v>
       </c>
       <c r="BG28" s="5">
         <f t="shared" si="85"/>
-        <v>322629.68404471164</v>
+        <v>243264.06621481711</v>
       </c>
       <c r="BH28" s="5">
         <f t="shared" si="85"/>
-        <v>345213.76192784146</v>
+        <v>256643.58985663202</v>
       </c>
       <c r="BI28" s="5">
         <f t="shared" si="85"/>
-        <v>369378.72526279039</v>
+        <v>270758.98729874677</v>
       </c>
       <c r="BJ28" s="5">
         <f t="shared" si="85"/>
-        <v>395235.23603118572</v>
+        <v>285650.73160017782</v>
       </c>
       <c r="BK28" s="5">
         <f t="shared" si="85"/>
-        <v>422901.70255336876</v>
+        <v>301361.52183818759</v>
       </c>
       <c r="BL28" s="5">
         <f t="shared" si="85"/>
-        <v>452504.82173210458</v>
+        <v>317936.40553928789</v>
       </c>
       <c r="BM28" s="5">
         <f t="shared" si="85"/>
-        <v>484180.15925335191</v>
+        <v>335422.90784394869</v>
       </c>
       <c r="BN28" s="5">
         <f t="shared" si="85"/>
-        <v>518072.7704010866</v>
+        <v>353871.16777536587</v>
       </c>
       <c r="BO28" s="5">
         <f t="shared" si="85"/>
-        <v>554337.86432916275</v>
+        <v>373334.08200301096</v>
       </c>
       <c r="BP28" s="5">
         <f t="shared" si="85"/>
-        <v>593141.51483220421</v>
+        <v>393867.45651317656</v>
       </c>
       <c r="BQ28" s="5">
         <f t="shared" si="85"/>
-        <v>634661.42087045859</v>
+        <v>415530.16662140127</v>
       </c>
       <c r="BR28" s="5">
         <f t="shared" si="85"/>
-        <v>679087.72033139074</v>
+        <v>438384.32578557829</v>
       </c>
       <c r="BS28" s="5">
         <f t="shared" si="85"/>
-        <v>726623.86075458815</v>
+        <v>462495.46370378509</v>
       </c>
       <c r="BT28" s="5">
         <f t="shared" si="85"/>
-        <v>777487.53100740933</v>
+        <v>487932.71420749323</v>
       </c>
       <c r="BU28" s="5">
         <f t="shared" si="85"/>
-        <v>831911.65817792807</v>
+        <v>514769.01348890533</v>
       </c>
       <c r="BV28" s="5">
         <f t="shared" si="85"/>
-        <v>890145.47425038309</v>
+        <v>543081.30923079513</v>
       </c>
       <c r="BW28" s="5">
         <f t="shared" si="85"/>
-        <v>952455.65744790994</v>
+        <v>572950.78123848885</v>
       </c>
       <c r="BX28" s="5">
         <f t="shared" si="85"/>
-        <v>1019127.5534692637</v>
+        <v>604463.07420660567</v>
       </c>
       <c r="BY28" s="5">
         <f t="shared" si="85"/>
-        <v>1090466.4822121123</v>
+        <v>637708.54328796896</v>
       </c>
       <c r="BZ28" s="5">
         <f t="shared" si="85"/>
-        <v>1166799.1359669601</v>
+        <v>672782.51316880726</v>
       </c>
       <c r="CA28" s="5">
         <f t="shared" si="85"/>
-        <v>1248475.0754846474</v>
+        <v>709785.55139309156</v>
       </c>
       <c r="CB28" s="5">
         <f t="shared" si="85"/>
-        <v>1335868.3307685729</v>
+        <v>748823.75671971159</v>
       </c>
       <c r="CC28" s="5">
         <f t="shared" si="85"/>
-        <v>1429379.1139223732</v>
+        <v>790009.06333929568</v>
       </c>
       <c r="CD28" s="5">
         <f t="shared" si="85"/>
-        <v>1529435.6518969394</v>
+        <v>833459.56182295689</v>
       </c>
       <c r="CE28" s="5">
         <f t="shared" si="85"/>
-        <v>1636496.1475297252</v>
+        <v>879299.83772321942</v>
       </c>
       <c r="CF28" s="5">
         <f t="shared" si="85"/>
-        <v>1751050.8778568062</v>
+        <v>927661.32879799639</v>
       </c>
       <c r="CG28" s="5">
         <f t="shared" si="85"/>
-        <v>1873624.4393067828</v>
+        <v>978682.70188188611</v>
       </c>
       <c r="CH28" s="5">
         <f t="shared" si="85"/>
-        <v>2004778.1500582576</v>
+        <v>1032510.2504853898</v>
       </c>
       <c r="CI28" s="5">
         <f t="shared" si="85"/>
-        <v>2145112.6205623359</v>
+        <v>1089298.3142620863</v>
       </c>
       <c r="CJ28" s="5">
         <f t="shared" si="85"/>
-        <v>2295270.5040016994</v>
+        <v>1149209.7215465009</v>
       </c>
       <c r="CK28" s="5">
         <f t="shared" si="85"/>
-        <v>2455939.4392818185</v>
+        <v>1212416.2562315585</v>
       </c>
       <c r="CL28" s="5">
         <f t="shared" si="85"/>
-        <v>2627855.2000315459</v>
+        <v>1279099.1503242941</v>
       </c>
       <c r="CM28" s="5">
         <f t="shared" si="85"/>
-        <v>2811805.0640337542</v>
+        <v>1349449.6035921301</v>
       </c>
       <c r="CN28" s="5">
         <f t="shared" si="85"/>
-        <v>3008631.4185161171</v>
+        <v>1423669.3317896973</v>
       </c>
       <c r="CO28" s="5">
         <f t="shared" si="85"/>
-        <v>3219235.6178122456</v>
+        <v>1501971.1450381305</v>
       </c>
       <c r="CP28" s="5">
         <f t="shared" si="85"/>
-        <v>3444582.1110591032</v>
+        <v>1584579.5580152276</v>
       </c>
       <c r="CQ28" s="5">
         <f t="shared" si="85"/>
-        <v>3685702.8588332408</v>
+        <v>1671731.4337060649</v>
       </c>
       <c r="CR28" s="5">
         <f t="shared" si="85"/>
-        <v>3943702.0589515679</v>
+        <v>1763676.6625598983</v>
       </c>
       <c r="CS28" s="5">
         <f t="shared" si="85"/>
-        <v>4219761.2030781778</v>
+        <v>1860678.8790006926</v>
       </c>
       <c r="CT28" s="5">
         <f t="shared" si="85"/>
-        <v>4515144.4872936504</v>
+        <v>1963016.2173457306</v>
       </c>
       <c r="CU28" s="5">
         <f t="shared" si="85"/>
-        <v>4831204.6014042059</v>
+        <v>2070982.1092997456</v>
       </c>
       <c r="CV28" s="5">
         <f t="shared" si="85"/>
-        <v>5169388.9235025002</v>
+        <v>2184886.1253112317</v>
       </c>
       <c r="CW28" s="5">
         <f t="shared" si="85"/>
-        <v>5531246.1481476752</v>
+        <v>2305054.8622033494</v>
       </c>
       <c r="CX28" s="5"/>
       <c r="CY28" s="5"/>
@@ -4854,27 +4854,27 @@
         <v>0.21848522087833899</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" ref="K33:K35" si="101">(K6/G6)-1</f>
+        <f t="shared" ref="K33:K34" si="101">(K6/G6)-1</f>
         <v>0.28768796867741742</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" ref="L33:L35" si="102">(L6/H6)-1</f>
+        <f t="shared" ref="L33:L34" si="102">(L6/H6)-1</f>
         <v>0.22053710534351167</v>
       </c>
       <c r="M33" s="7">
-        <f t="shared" ref="M33:M35" si="103">(M6/I6)-1</f>
+        <f t="shared" ref="M33:M34" si="103">(M6/I6)-1</f>
         <v>0.20823359273388919</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" ref="N33:N35" si="104">(N6/J6)-1</f>
+        <f t="shared" ref="N33:N34" si="104">(N6/J6)-1</f>
         <v>0.12550881000000036</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" ref="O33:O35" si="105">(O6/K6)-1</f>
+        <f t="shared" ref="O33:O34" si="105">(O6/K6)-1</f>
         <v>0.12550881000000014</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" ref="P33:P35" si="106">(P6/L6)-1</f>
+        <f t="shared" ref="P33:P34" si="106">(P6/L6)-1</f>
         <v>0.12550881000000014</v>
       </c>
       <c r="W33" s="7"/>
@@ -4900,7 +4900,7 @@
         <v>0.26843847710134261</v>
       </c>
       <c r="AD33" s="7">
-        <f t="shared" ref="AD33:AE35" si="108">(AD6/AC6)-1</f>
+        <f t="shared" ref="AD33:AE34" si="108">(AD6/AC6)-1</f>
         <v>0.45264506150462802</v>
       </c>
       <c r="AE33" s="7">
@@ -5028,7 +5028,7 @@
         <v>-3.1362007168458828E-2</v>
       </c>
       <c r="Z35" s="7">
-        <f t="shared" ref="Z35:AM35" si="111">Z28/Y28-1</f>
+        <f t="shared" ref="Z35:AE35" si="111">Z28/Y28-1</f>
         <v>0.24100491747407382</v>
       </c>
       <c r="AA35" s="7">
@@ -5118,27 +5118,27 @@
         <v>0.15333070555774531</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" ref="K36:K37" si="113">(K11/G11)-1</f>
+        <f t="shared" ref="K37" si="113">(K11/G11)-1</f>
         <v>0.13470632530120485</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" ref="L36:L37" si="114">(L11/H11)-1</f>
+        <f t="shared" ref="L37" si="114">(L11/H11)-1</f>
         <v>1.3117950391644984E-2</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" ref="M36:M37" si="115">(M11/I11)-1</f>
+        <f t="shared" ref="M37" si="115">(M11/I11)-1</f>
         <v>8.5677148387096835E-2</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" ref="N36:N37" si="116">(N11/J11)-1</f>
+        <f t="shared" ref="N37" si="116">(N11/J11)-1</f>
         <v>0.12550881000000014</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" ref="O36:O37" si="117">(O11/K11)-1</f>
+        <f t="shared" ref="O37" si="117">(O11/K11)-1</f>
         <v>0.12550880999999992</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" ref="P36:P37" si="118">(P11/L11)-1</f>
+        <f t="shared" ref="P37" si="118">(P11/L11)-1</f>
         <v>0.12550881000000014</v>
       </c>
       <c r="W37" s="7"/>
@@ -5679,7 +5679,7 @@
         <v>70</v>
       </c>
       <c r="AH46" s="27">
-        <v>7.0000000000000007E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AJ46" s="1" t="s">
         <v>72</v>
@@ -5721,7 +5721,7 @@
         <v>69</v>
       </c>
       <c r="AH47" s="29">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="48" spans="2:39" x14ac:dyDescent="0.2">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="AH48" s="31">
         <f>NPV(AH47,AF28:CW28)</f>
-        <v>2963933.9243122642</v>
+        <v>3285079.1773080197</v>
       </c>
       <c r="AI48" s="15"/>
     </row>
@@ -5800,7 +5800,7 @@
       <c r="AG49" s="30"/>
       <c r="AH49" s="31">
         <f>AH48/Main!M4</f>
-        <v>397.47001801156824</v>
+        <v>440.53629841866967</v>
       </c>
       <c r="AJ49" s="2"/>
     </row>
@@ -5856,8 +5856,8 @@
         <v>71</v>
       </c>
       <c r="AH51" s="33">
-        <f>(AH49/282.3)-1</f>
-        <v>0.40797030822376268</v>
+        <f>(AH49/Main!M3)-1</f>
+        <v>0.50915110280110176</v>
       </c>
     </row>
     <row r="52" spans="2:36" x14ac:dyDescent="0.2">
